--- a/bbdd/QUINIELA_1_CURRENT.xlsx
+++ b/bbdd/QUINIELA_1_CURRENT.xlsx
@@ -22,94 +22,94 @@
     <t>VISITANTE</t>
   </si>
   <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Espanyol</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
     <t>Mallorca</t>
   </si>
   <si>
     <t>Villarreal</t>
   </si>
   <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Leganes</t>
+    <t>Real Betis</t>
   </si>
   <si>
     <t>Osasuna</t>
   </si>
   <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
     <t>Las Palmas</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
     <t>Almeria</t>
   </si>
   <si>
+    <t>Albacete</t>
+  </si>
+  <si>
     <t>Huesca</t>
   </si>
   <si>
-    <t>Alcorcon</t>
+    <t>Racing Santander</t>
   </si>
   <si>
     <t>Girona</t>
   </si>
   <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Espanyol</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Numancia</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Alaves</t>
   </si>
 </sst>
 </file>
